--- a/sample/test/simple_with_hidden_sheets_template.xlsx
+++ b/sample/test/simple_with_hidden_sheets_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\The Gang\exco\sample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E44DC2-22FB-4DFC-B74F-374F3223E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64439FD-D72A-401D-8D38-1BC14EAFE990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test15654651" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
